--- a/QPYE2/TestData.xlsx
+++ b/QPYE2/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188D3AFA-7194-4A4B-9331-8B2835908195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFA2D2-8D3C-E04E-B036-EBA0CA461645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>ModuleName</t>
   </si>
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -198,6 +198,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,18 +589,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F608E0-3384-C345-ADD5-796B91ACB542}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -683,32 +687,74 @@
         <v>12345</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5">
+        <v>123456</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M3" s="5">
+        <v>12345</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -718,19 +764,215 @@
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{84F65D07-2BCB-9540-821C-8B78E6288DB9}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{813CDC2C-520E-CA43-9222-CFE567E71B4D}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{F3DCD75E-0A8E-3E45-88A9-268DAFEAE6D6}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{813CDC2C-520E-CA43-9222-CFE567E71B4D}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{F3DCD75E-0A8E-3E45-88A9-268DAFEAE6D6}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{9D94B7C3-9952-5E48-BFC8-92AA66AE4087}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{015D4D81-3633-1447-A9B0-1A1BC8FEBF0D}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{7D3DAB21-DFA5-7D42-8FAF-6E71A3469E52}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{8A7B3A84-8102-1046-8D68-489B2FF3B4C7}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{46910CF7-4A1B-8B4A-8496-7A19B490A7D6}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{1BE4B60A-A786-764D-B733-95F4F14D2914}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{96642FAC-06CF-FB49-B0F9-6B4C4EB4A62D}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{E245F1D9-6B54-E54E-92E4-F97EACCA2611}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{550AAA63-DABB-5C4E-AC8C-37F37D24006F}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{0B063A5C-C83E-A643-8471-67A66035AEE7}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{42FF4AEB-D558-8242-AFB9-53E1D92C59BC}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{8D89C7F1-1137-7D4B-9CB7-D2B287EB28AE}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{0A846BC4-E3EF-EC4F-9EAA-66296687208F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>